--- a/docs/CRO_draft_March26(1).xlsx
+++ b/docs/CRO_draft_March26(1).xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10319"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D50B9342-BF1A-EE4D-8B8C-381914A58958}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26311"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haendel/Documents/GitHub/cd2h git/contributor-role-ontology/docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="27140" windowHeight="16540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="27140" windowHeight="16540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CRediT-original" sheetId="1" r:id="rId1"/>
     <sheet name="CR-ProjectLevel" sheetId="3" r:id="rId2"/>
     <sheet name="CR-OutputLevel" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="138">
   <si>
     <t>Contributor Role</t>
   </si>
@@ -310,19 +319,143 @@
     <t>Training - formal</t>
   </si>
   <si>
-    <t>relationship A:C</t>
+    <t>does not belong in "data"</t>
   </si>
   <si>
-    <t>does not belong in "data"</t>
+    <t>Merged class name</t>
+  </si>
+  <si>
+    <t>Data Analysis</t>
+  </si>
+  <si>
+    <t>Data curation</t>
+  </si>
+  <si>
+    <t>Technical writing Synonym: technical documentation</t>
+  </si>
+  <si>
+    <t>Data entry</t>
+  </si>
+  <si>
+    <t>this is the same as 'data analysis'</t>
+  </si>
+  <si>
+    <t>data transformation (synonym data manipulation), data aggregation, data integration are diff terms</t>
+  </si>
+  <si>
+    <t>data modeling</t>
+  </si>
+  <si>
+    <t>standards development</t>
+  </si>
+  <si>
+    <t>data validation</t>
+  </si>
+  <si>
+    <t>data visualization</t>
+  </si>
+  <si>
+    <t>educational instruction</t>
+  </si>
+  <si>
+    <t>educational materials development</t>
+  </si>
+  <si>
+    <t>educational program development</t>
+  </si>
+  <si>
+    <t>educational training</t>
+  </si>
+  <si>
+    <t>IT hardware systems design and implementation (Are both diff terms)</t>
+  </si>
+  <si>
+    <t>same as above</t>
+  </si>
+  <si>
+    <t>systems administration</t>
+  </si>
+  <si>
+    <t>website development</t>
+  </si>
+  <si>
+    <t>Database Administration (same as sys admin?)</t>
+  </si>
+  <si>
+    <t>funding acquisition (related term grant writing)</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>program administration</t>
+  </si>
+  <si>
+    <t>research coordination</t>
+  </si>
+  <si>
+    <t>supervisory role</t>
+  </si>
+  <si>
+    <t>Instrument technician role</t>
+  </si>
+  <si>
+    <t>instrument development role</t>
+  </si>
+  <si>
+    <t>already above</t>
+  </si>
+  <si>
+    <t>experimentation role</t>
+  </si>
+  <si>
+    <t>methodology development role</t>
+  </si>
+  <si>
+    <t>seems synonym as methodology dev role</t>
+  </si>
+  <si>
+    <t>outreach materials development role</t>
+  </si>
+  <si>
+    <t>outreach role</t>
+  </si>
+  <si>
+    <t>research conceptualization role</t>
+  </si>
+  <si>
+    <t>research coordination role</t>
+  </si>
+  <si>
+    <t>research technician role</t>
+  </si>
+  <si>
+    <t>software architecture role</t>
+  </si>
+  <si>
+    <t>software code review role, diff role is softward code testing</t>
+  </si>
+  <si>
+    <t>software design</t>
+  </si>
+  <si>
+    <t>software enginnering</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -434,91 +567,91 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,10 +659,10 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,10 +670,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,10 +681,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,41 +692,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,23 +824,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -739,23 +859,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -931,7 +1034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1072,11 +1175,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IZ108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1158,7 +1261,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>34</v>
@@ -1174,7 +1277,9 @@
       <c r="A12" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="23" t="s">
+        <v>92</v>
+      </c>
       <c r="C12" s="23" t="s">
         <v>92</v>
       </c>
@@ -1440,7 +1545,9 @@
       <c r="A13" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="34" t="s">
+        <v>101</v>
+      </c>
       <c r="C13" s="7" t="s">
         <v>69</v>
       </c>
@@ -1708,6 +1815,9 @@
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="B14" s="35" t="s">
+        <v>99</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>44</v>
       </c>
@@ -1973,7 +2083,9 @@
       <c r="A15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="36" t="s">
+        <v>100</v>
+      </c>
       <c r="C15" s="9" t="s">
         <v>41</v>
       </c>
@@ -2241,6 +2353,9 @@
       <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="B16" s="35" t="s">
+        <v>72</v>
+      </c>
       <c r="C16" s="19" t="s">
         <v>72</v>
       </c>
@@ -2506,7 +2621,9 @@
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="35" t="s">
+        <v>102</v>
+      </c>
       <c r="C17" s="2" t="s">
         <v>42</v>
       </c>
@@ -2774,7 +2891,9 @@
       <c r="A18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="C18" s="9" t="s">
         <v>6</v>
       </c>
@@ -3042,6 +3161,9 @@
       <c r="A19" s="7" t="s">
         <v>40</v>
       </c>
+      <c r="B19" s="34" t="s">
+        <v>104</v>
+      </c>
       <c r="C19" s="7" t="s">
         <v>48</v>
       </c>
@@ -3052,6 +3174,9 @@
     <row r="20" spans="1:260" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>40</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>105</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>49</v>
@@ -3318,12 +3443,14 @@
       <c r="A21" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="37" t="s">
+        <v>106</v>
+      </c>
       <c r="C21" s="24" t="s">
         <v>50</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>43</v>
@@ -3333,7 +3460,9 @@
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="C22" s="2" t="s">
         <v>45</v>
       </c>
@@ -3347,7 +3476,9 @@
       <c r="A23" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="9"/>
+      <c r="B23" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="C23" s="9" t="s">
         <v>22</v>
       </c>
@@ -3617,7 +3748,9 @@
       <c r="A24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="9"/>
+      <c r="B24" s="9" t="s">
+        <v>108</v>
+      </c>
       <c r="C24" s="9" t="s">
         <v>24</v>
       </c>
@@ -3885,6 +4018,9 @@
       <c r="A25" s="7" t="s">
         <v>51</v>
       </c>
+      <c r="B25" s="34" t="s">
+        <v>109</v>
+      </c>
       <c r="C25" s="23" t="s">
         <v>93</v>
       </c>
@@ -3896,6 +4032,9 @@
       <c r="A26" s="7" t="s">
         <v>51</v>
       </c>
+      <c r="B26" s="34" t="s">
+        <v>110</v>
+      </c>
       <c r="C26" s="7" t="s">
         <v>52</v>
       </c>
@@ -3907,6 +4046,9 @@
       <c r="A27" s="7" t="s">
         <v>51</v>
       </c>
+      <c r="B27" s="34" t="s">
+        <v>111</v>
+      </c>
       <c r="C27" s="7" t="s">
         <v>54</v>
       </c>
@@ -3918,7 +4060,9 @@
       <c r="A28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="7"/>
+      <c r="B28" s="34" t="s">
+        <v>112</v>
+      </c>
       <c r="C28" s="23" t="s">
         <v>96</v>
       </c>
@@ -4184,7 +4328,9 @@
       <c r="A29" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="35" t="s">
+        <v>113</v>
+      </c>
       <c r="C29" s="2" t="s">
         <v>75</v>
       </c>
@@ -4452,7 +4598,9 @@
       <c r="A30" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="21"/>
+      <c r="B30" s="35" t="s">
+        <v>114</v>
+      </c>
       <c r="C30" s="2" t="s">
         <v>76</v>
       </c>
@@ -4720,7 +4868,9 @@
       <c r="A31" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="21"/>
+      <c r="B31" s="35" t="s">
+        <v>115</v>
+      </c>
       <c r="C31" s="2" t="s">
         <v>79</v>
       </c>
@@ -4988,7 +5138,9 @@
       <c r="A32" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="21"/>
+      <c r="B32" s="35" t="s">
+        <v>116</v>
+      </c>
       <c r="C32" s="2" t="s">
         <v>77</v>
       </c>
@@ -5256,6 +5408,9 @@
       <c r="A33" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="B33" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="C33" s="2" t="s">
         <v>68</v>
       </c>
@@ -5520,6 +5675,9 @@
     <row r="34" spans="1:260" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>67</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>117</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>78</v>
@@ -5788,6 +5946,9 @@
       <c r="A35" s="10" t="s">
         <v>67</v>
       </c>
+      <c r="B35" s="36" t="s">
+        <v>118</v>
+      </c>
       <c r="C35" s="9" t="s">
         <v>8</v>
       </c>
@@ -5803,7 +5964,9 @@
       <c r="A36" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="35" t="s">
+        <v>119</v>
+      </c>
       <c r="C36" s="2" t="s">
         <v>80</v>
       </c>
@@ -6071,7 +6234,9 @@
       <c r="A37" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="2"/>
+      <c r="B37" s="35" t="s">
+        <v>119</v>
+      </c>
       <c r="C37" s="2" t="s">
         <v>82</v>
       </c>
@@ -6339,7 +6504,9 @@
       <c r="A38" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="7"/>
+      <c r="B38" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="C38" s="2" t="s">
         <v>85</v>
       </c>
@@ -6605,7 +6772,9 @@
       <c r="A39" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="10"/>
+      <c r="B39" s="36" t="s">
+        <v>120</v>
+      </c>
       <c r="C39" s="18" t="s">
         <v>14</v>
       </c>
@@ -6875,7 +7044,9 @@
       <c r="A40" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="7"/>
+      <c r="B40" s="34" t="s">
+        <v>121</v>
+      </c>
       <c r="C40" s="2" t="s">
         <v>95</v>
       </c>
@@ -7141,7 +7312,9 @@
       <c r="A41" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="9"/>
+      <c r="B41" s="9" t="s">
+        <v>119</v>
+      </c>
       <c r="C41" s="9" t="s">
         <v>16</v>
       </c>
@@ -7409,7 +7582,9 @@
       <c r="A42" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="9"/>
+      <c r="B42" s="9" t="s">
+        <v>122</v>
+      </c>
       <c r="C42" s="18" t="s">
         <v>20</v>
       </c>
@@ -7677,6 +7852,9 @@
       <c r="A43" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="B43" s="35" t="s">
+        <v>124</v>
+      </c>
       <c r="C43" s="2" t="s">
         <v>61</v>
       </c>
@@ -7944,6 +8122,9 @@
       <c r="A44" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="B44" s="35" t="s">
+        <v>123</v>
+      </c>
       <c r="C44" s="2" t="s">
         <v>60</v>
       </c>
@@ -8211,7 +8392,9 @@
       <c r="A45" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="18"/>
+      <c r="B45" s="18" t="s">
+        <v>125</v>
+      </c>
       <c r="C45" s="19" t="s">
         <v>72</v>
       </c>
@@ -8219,6 +8402,9 @@
     <row r="46" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>126</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>86</v>
@@ -8482,7 +8668,9 @@
       <c r="A47" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B47" s="9"/>
+      <c r="B47" s="9" t="s">
+        <v>119</v>
+      </c>
       <c r="C47" s="9" t="s">
         <v>10</v>
       </c>
@@ -8750,7 +8938,9 @@
       <c r="A48" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="10"/>
+      <c r="B48" s="36" t="s">
+        <v>127</v>
+      </c>
       <c r="C48" s="9" t="s">
         <v>12</v>
       </c>
@@ -8763,6 +8953,9 @@
     <row r="49" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>128</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>57</v>
@@ -9031,6 +9224,9 @@
       <c r="A50" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B50" s="35" t="s">
+        <v>114</v>
+      </c>
       <c r="C50" s="2" t="s">
         <v>58</v>
       </c>
@@ -9298,7 +9494,9 @@
       <c r="A51" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="23"/>
+      <c r="B51" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="C51" s="2" t="s">
         <v>70</v>
       </c>
@@ -9561,7 +9759,9 @@
       <c r="A52" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="7"/>
+      <c r="B52" s="34" t="s">
+        <v>129</v>
+      </c>
       <c r="C52" s="7" t="s">
         <v>52</v>
       </c>
@@ -9827,7 +10027,9 @@
       <c r="A53" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="7"/>
+      <c r="B53" s="34" t="s">
+        <v>130</v>
+      </c>
       <c r="C53" s="7" t="s">
         <v>55</v>
       </c>
@@ -10093,7 +10295,9 @@
       <c r="A54" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="23"/>
+      <c r="B54" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="C54" s="2" t="s">
         <v>84</v>
       </c>
@@ -10359,7 +10563,9 @@
       <c r="A55" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B55" s="9"/>
+      <c r="B55" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="C55" s="9" t="s">
         <v>2</v>
       </c>
@@ -10627,6 +10833,9 @@
       <c r="A56" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="B56" s="35" t="s">
+        <v>132</v>
+      </c>
       <c r="C56" s="2" t="s">
         <v>88</v>
       </c>
@@ -10889,6 +11098,9 @@
       <c r="A57" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="B57" s="35" t="s">
+        <v>133</v>
+      </c>
       <c r="C57" s="2" t="s">
         <v>60</v>
       </c>
@@ -11151,7 +11363,9 @@
       <c r="A58" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="2"/>
+      <c r="B58" s="35" t="s">
+        <v>134</v>
+      </c>
       <c r="C58" s="2" t="s">
         <v>63</v>
       </c>
@@ -11419,7 +11633,9 @@
       <c r="A59" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B59" s="2"/>
+      <c r="B59" s="35" t="s">
+        <v>135</v>
+      </c>
       <c r="C59" s="2" t="s">
         <v>66</v>
       </c>
@@ -11687,7 +11903,9 @@
       <c r="A60" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B60" s="2"/>
+      <c r="B60" s="35" t="s">
+        <v>136</v>
+      </c>
       <c r="C60" s="2" t="s">
         <v>64</v>
       </c>
@@ -11955,7 +12173,9 @@
       <c r="A61" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="2"/>
+      <c r="B61" s="35" t="s">
+        <v>137</v>
+      </c>
       <c r="C61" s="2" t="s">
         <v>62</v>
       </c>
@@ -24020,7 +24240,7 @@
       <c r="IZ108" s="25"/>
     </row>
   </sheetData>
-  <sortState ref="A12:IZ63">
+  <sortState ref="A12:JA63">
     <sortCondition ref="A12:A63"/>
     <sortCondition ref="C12:C63"/>
   </sortState>
@@ -24030,7 +24250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IY66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26521,7 +26741,7 @@
         <v>50</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>43</v>

--- a/docs/CRO_draft_March26(1).xlsx
+++ b/docs/CRO_draft_March26(1).xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haendel/Documents/GitHub/cd2h git/contributor-role-ontology/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasilevs/git/contributor-role-ontology/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="27140" windowHeight="16540" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="27140" windowHeight="16240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CRediT-original" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="139">
   <si>
     <t>Contributor Role</t>
   </si>
@@ -440,6 +443,9 @@
   </si>
   <si>
     <t>software enginnering</t>
+  </si>
+  <si>
+    <t>Notes - NV 10/01/18</t>
   </si>
 </sst>
 </file>
@@ -1178,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IZ108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1187,8 +1193,9 @@
     <col min="1" max="1" width="31.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="39.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:260" ht="19" x14ac:dyDescent="0.25">
@@ -1271,6 +1278,9 @@
       </c>
       <c r="E11" s="11" t="s">
         <v>36</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:260" s="10" customFormat="1" x14ac:dyDescent="0.2">

--- a/docs/CRO_draft_March26(1).xlsx
+++ b/docs/CRO_draft_March26(1).xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="149">
   <si>
     <t>Contributor Role</t>
   </si>
@@ -447,14 +447,51 @@
   <si>
     <t>Notes - NV 10/01/18</t>
   </si>
+  <si>
+    <t>added syn</t>
+  </si>
+  <si>
+    <t>CRO_0000034</t>
+  </si>
+  <si>
+    <t>CRO_0000037</t>
+  </si>
+  <si>
+    <t>CRO_0000036</t>
+  </si>
+  <si>
+    <t>CRO_0000039</t>
+  </si>
+  <si>
+    <t>CRO_0000072</t>
+  </si>
+  <si>
+    <t>CRO_0000041</t>
+  </si>
+  <si>
+    <t>CRO_0000073</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>added as child of 'methodology role'</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -502,6 +539,22 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -695,50 +748,92 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="21">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1185,7 +1280,7 @@
   <dimension ref="A2:IZ108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1281,6 +1376,9 @@
       </c>
       <c r="F11" s="11" t="s">
         <v>138</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:260" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1555,7 +1653,7 @@
       <c r="A13" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="38" t="s">
         <v>101</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -1565,7 +1663,9 @@
       <c r="E13" t="s">
         <v>83</v>
       </c>
-      <c r="F13"/>
+      <c r="F13" s="38" t="s">
+        <v>139</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -1834,6 +1934,9 @@
       <c r="E14" s="21" t="s">
         <v>89</v>
       </c>
+      <c r="F14" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -2102,8 +2205,12 @@
       <c r="D15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>141</v>
+      </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -2372,6 +2479,9 @@
       <c r="E16" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="F16" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -2641,7 +2751,9 @@
       <c r="E17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
@@ -3171,7 +3283,7 @@
       <c r="A19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="38" t="s">
         <v>104</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -3179,6 +3291,9 @@
       </c>
       <c r="D19" s="7" t="s">
         <v>73</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:260" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3193,6 +3308,9 @@
       </c>
       <c r="E20" s="7" t="s">
         <v>43</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
@@ -3464,6 +3582,12 @@
       </c>
       <c r="E21" s="7" t="s">
         <v>43</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:260" s="7" customFormat="1" x14ac:dyDescent="0.2">

--- a/docs/CRO_draft_March26(1).xlsx
+++ b/docs/CRO_draft_March26(1).xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="192">
   <si>
     <t>Contributor Role</t>
   </si>
@@ -477,6 +477,135 @@
   <si>
     <t>added as child of 'methodology role'</t>
   </si>
+  <si>
+    <t>CRO_0000035</t>
+  </si>
+  <si>
+    <t>added statistical analysis role as a syn</t>
+  </si>
+  <si>
+    <t>CRO_0000074</t>
+  </si>
+  <si>
+    <t>CRO_0000044</t>
+  </si>
+  <si>
+    <t>CRO_0000075</t>
+  </si>
+  <si>
+    <t>CRO_0000047</t>
+  </si>
+  <si>
+    <t>Relabled 'teaching role' and made 'teaching role' a syn</t>
+  </si>
+  <si>
+    <t>CRO_0000045</t>
+  </si>
+  <si>
+    <t>CRO_0000046</t>
+  </si>
+  <si>
+    <t>CRO_0000076</t>
+  </si>
+  <si>
+    <t>added a child of 'contributor role' - should these be two classes?</t>
+  </si>
+  <si>
+    <t>CRO_0000077</t>
+  </si>
+  <si>
+    <t>CRO_0000008</t>
+  </si>
+  <si>
+    <t>should this be a child of 'IT hardware systems design and implementation role'?</t>
+  </si>
+  <si>
+    <t>CRO_0000006</t>
+  </si>
+  <si>
+    <t>CRO_0000050</t>
+  </si>
+  <si>
+    <t>CRO_0000017</t>
+  </si>
+  <si>
+    <t>CRO_0000079</t>
+  </si>
+  <si>
+    <t>CRO_0000080</t>
+  </si>
+  <si>
+    <t>CRO_0000081</t>
+  </si>
+  <si>
+    <t>CRO_0000082</t>
+  </si>
+  <si>
+    <t>added as child of 'infrastructure role' (new class)</t>
+  </si>
+  <si>
+    <t>CRO_0000057</t>
+  </si>
+  <si>
+    <t>CRO_0000058</t>
+  </si>
+  <si>
+    <t>CRO_0000029</t>
+  </si>
+  <si>
+    <t>added as syn for ''study investigation role'</t>
+  </si>
+  <si>
+    <t>CRO_0000021</t>
+  </si>
+  <si>
+    <t>added as syn for 'methodology development role'</t>
+  </si>
+  <si>
+    <t>CRO_0000053</t>
+  </si>
+  <si>
+    <t>added as syn for 'protocol creation role'</t>
+  </si>
+  <si>
+    <t>CRO_0000056</t>
+  </si>
+  <si>
+    <t>CRO_0000083</t>
+  </si>
+  <si>
+    <t>CRO_0000084</t>
+  </si>
+  <si>
+    <t>added as syn for 'communication role'</t>
+  </si>
+  <si>
+    <t>CRO_0000007</t>
+  </si>
+  <si>
+    <t>CRO_0000085</t>
+  </si>
+  <si>
+    <t>CRO_0000086</t>
+  </si>
+  <si>
+    <t>CRO_0000087</t>
+  </si>
+  <si>
+    <t>added as child of 'study investigation role'</t>
+  </si>
+  <si>
+    <t>CRO_0000062</t>
+  </si>
+  <si>
+    <t>CRO_0000060</t>
+  </si>
+  <si>
+    <t>CRO_0000063</t>
+  </si>
+  <si>
+    <t>CRO_0000064</t>
+  </si>
 </sst>
 </file>
 
@@ -748,7 +877,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -770,8 +899,108 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -812,8 +1041,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="121">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -824,6 +1055,56 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -834,6 +1115,56 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1279,8 +1610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IZ108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3604,7 +3935,12 @@
       <c r="E22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="23" spans="1:260" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
@@ -3622,7 +3958,9 @@
       <c r="E23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>151</v>
+      </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -3892,7 +4230,9 @@
         <v>25</v>
       </c>
       <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>152</v>
+      </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -4161,6 +4501,12 @@
       <c r="E25" s="7" t="s">
         <v>94</v>
       </c>
+      <c r="F25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="26" spans="1:260" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
@@ -4175,6 +4521,9 @@
       <c r="E26" s="7" t="s">
         <v>53</v>
       </c>
+      <c r="F26" s="7" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="27" spans="1:260" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
@@ -4189,6 +4538,9 @@
       <c r="E27" s="7" t="s">
         <v>53</v>
       </c>
+      <c r="F27" s="7" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="28" spans="1:260" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
@@ -4202,7 +4554,9 @@
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="F28" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -4472,8 +4826,12 @@
       <c r="E29" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F29"/>
-      <c r="G29" s="7"/>
+      <c r="F29" t="s">
+        <v>158</v>
+      </c>
+      <c r="G29" s="38" t="s">
+        <v>159</v>
+      </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
@@ -5012,7 +5370,9 @@
       <c r="E31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F31"/>
+      <c r="F31" t="s">
+        <v>160</v>
+      </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -5282,8 +5642,12 @@
       <c r="E32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F32"/>
-      <c r="G32" s="25"/>
+      <c r="F32" t="s">
+        <v>161</v>
+      </c>
+      <c r="G32" s="38" t="s">
+        <v>162</v>
+      </c>
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
@@ -5550,6 +5914,9 @@
       </c>
       <c r="E33" s="2" t="s">
         <v>53</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -5810,7 +6177,7 @@
       <c r="A34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="40" t="s">
         <v>117</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -5820,8 +6187,12 @@
       <c r="E34" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F34"/>
-      <c r="G34" s="7"/>
+      <c r="F34" t="s">
+        <v>164</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>139</v>
+      </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
@@ -6080,7 +6451,7 @@
       <c r="A35" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="41" t="s">
         <v>118</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -6092,7 +6463,9 @@
       <c r="E35" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F35" s="8"/>
+      <c r="F35" s="8" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="36" spans="1:260" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
@@ -6646,8 +7019,12 @@
       </c>
       <c r="D38"/>
       <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38" s="7"/>
+      <c r="F38" t="s">
+        <v>166</v>
+      </c>
+      <c r="G38" s="38" t="s">
+        <v>170</v>
+      </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
@@ -6918,8 +7295,12 @@
       <c r="E39" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="10"/>
+      <c r="F39" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G39" s="38" t="s">
+        <v>170</v>
+      </c>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
@@ -7186,8 +7567,12 @@
       </c>
       <c r="D40"/>
       <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40" s="7"/>
+      <c r="F40" t="s">
+        <v>168</v>
+      </c>
+      <c r="G40" s="38" t="s">
+        <v>170</v>
+      </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
@@ -7726,8 +8111,12 @@
         <v>21</v>
       </c>
       <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="10"/>
+      <c r="F42" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G42" s="38" t="s">
+        <v>170</v>
+      </c>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
@@ -7996,8 +8385,12 @@
       <c r="E43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="25"/>
+      <c r="F43" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G43" s="38" t="s">
+        <v>139</v>
+      </c>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
       <c r="J43" s="25"/>
@@ -8266,7 +8659,9 @@
       <c r="E44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
@@ -8543,7 +8938,12 @@
       <c r="C46" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="G46" s="25"/>
+      <c r="F46" t="s">
+        <v>173</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>174</v>
+      </c>
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
       <c r="J46" s="25"/>
@@ -9082,7 +9482,12 @@
         <v>13</v>
       </c>
       <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
+      <c r="F48" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="49" spans="1:260" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
@@ -9098,8 +9503,12 @@
       <c r="E49" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="25"/>
+      <c r="F49" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G49" s="38" t="s">
+        <v>178</v>
+      </c>
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
@@ -9368,7 +9777,9 @@
       <c r="E50" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
@@ -9634,6 +10045,9 @@
       <c r="C51" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="F51" t="s">
+        <v>180</v>
+      </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
@@ -9901,7 +10315,9 @@
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
+      <c r="F52" s="7" t="s">
+        <v>181</v>
+      </c>
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
@@ -10169,8 +10585,12 @@
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="25"/>
+      <c r="F53" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G53" s="25" t="s">
+        <v>182</v>
+      </c>
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
       <c r="J53" s="25"/>
@@ -10437,7 +10857,9 @@
       </c>
       <c r="D54"/>
       <c r="E54"/>
-      <c r="F54"/>
+      <c r="F54" t="s">
+        <v>184</v>
+      </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
@@ -10707,7 +11129,9 @@
         <v>3</v>
       </c>
       <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
+      <c r="F55" s="8" t="s">
+        <v>185</v>
+      </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
@@ -10973,6 +11397,9 @@
       <c r="C56" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="F56" t="s">
+        <v>168</v>
+      </c>
       <c r="G56" s="25"/>
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
@@ -11238,7 +11665,12 @@
       <c r="C57" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G57" s="25"/>
+      <c r="F57" t="s">
+        <v>186</v>
+      </c>
+      <c r="G57" s="25" t="s">
+        <v>187</v>
+      </c>
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
       <c r="J57" s="25"/>
@@ -11507,7 +11939,9 @@
       <c r="E58" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F58" s="2"/>
+      <c r="F58" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="G58" s="25"/>
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
@@ -11767,7 +12201,7 @@
       <c r="A59" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="40" t="s">
         <v>135</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -11777,7 +12211,9 @@
       <c r="E59" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
@@ -12047,7 +12483,9 @@
       <c r="E60" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F60" s="2"/>
+      <c r="F60" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
       <c r="I60" s="25"/>
@@ -12317,7 +12755,9 @@
       <c r="E61" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F61" s="2"/>
+      <c r="F61" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
       <c r="I61" s="25"/>

--- a/docs/CRO_draft_March26(1).xlsx
+++ b/docs/CRO_draft_March26(1).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="27140" windowHeight="16240" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="27140" windowHeight="16240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CRediT-original" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="207">
   <si>
     <t>Contributor Role</t>
   </si>
@@ -472,9 +472,6 @@
     <t>CRO_0000073</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>added as child of 'methodology role'</t>
   </si>
   <si>
@@ -605,6 +602,54 @@
   </si>
   <si>
     <t>CRO_0000064</t>
+  </si>
+  <si>
+    <t>NV notes 10/01/18</t>
+  </si>
+  <si>
+    <t>CRO_0000088</t>
+  </si>
+  <si>
+    <t>CRO_0000089</t>
+  </si>
+  <si>
+    <t>CRO_0000002</t>
+  </si>
+  <si>
+    <t>added as syn</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>CRO_0000014</t>
+  </si>
+  <si>
+    <t>CRO_0000090</t>
+  </si>
+  <si>
+    <t>CRO_0000020</t>
+  </si>
+  <si>
+    <t>moved to child of 'infrastructure role'</t>
+  </si>
+  <si>
+    <t>CRO_0000024</t>
+  </si>
+  <si>
+    <t>CRO_0000027</t>
+  </si>
+  <si>
+    <t>CRO_0000030</t>
+  </si>
+  <si>
+    <t>CRO_0000060, CRO_0000019</t>
+  </si>
+  <si>
+    <t>CRO_0000061</t>
+  </si>
+  <si>
+    <t>CRO_0000028</t>
   </si>
 </sst>
 </file>
@@ -877,7 +922,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="121">
+  <cellStyleXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -999,8 +1044,88 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1043,8 +1168,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="121">
+  <cellStyles count="201">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1105,6 +1231,46 @@
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1165,6 +1331,46 @@
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1610,8 +1816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IZ108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1706,10 +1912,10 @@
         <v>36</v>
       </c>
       <c r="F11" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:260" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -1724,7 +1930,9 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>193</v>
+      </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
@@ -1995,7 +2203,7 @@
         <v>83</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>139</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -3354,8 +3562,12 @@
         <v>7</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>195</v>
+      </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -3918,7 +4130,7 @@
         <v>146</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:260" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3936,10 +4148,10 @@
         <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="38" t="s">
         <v>149</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:260" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -3959,7 +4171,7 @@
         <v>47</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -4231,7 +4443,7 @@
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -4502,10 +4714,10 @@
         <v>94</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" s="38" t="s">
         <v>154</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:260" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4522,7 +4734,7 @@
         <v>53</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:260" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4539,7 +4751,7 @@
         <v>53</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:260" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -4555,7 +4767,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
@@ -4827,10 +5039,10 @@
         <v>53</v>
       </c>
       <c r="F29" t="s">
+        <v>157</v>
+      </c>
+      <c r="G29" s="38" t="s">
         <v>158</v>
-      </c>
-      <c r="G29" s="38" t="s">
-        <v>159</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -5371,7 +5583,7 @@
         <v>56</v>
       </c>
       <c r="F31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -5643,10 +5855,10 @@
         <v>56</v>
       </c>
       <c r="F32" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" s="38" t="s">
         <v>161</v>
-      </c>
-      <c r="G32" s="38" t="s">
-        <v>162</v>
       </c>
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
@@ -5916,7 +6128,7 @@
         <v>53</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -6188,7 +6400,7 @@
         <v>56</v>
       </c>
       <c r="F34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G34" s="38" t="s">
         <v>139</v>
@@ -6464,7 +6676,7 @@
         <v>90</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:260" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -7020,10 +7232,10 @@
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G38" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
@@ -7296,10 +7508,10 @@
         <v>90</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
@@ -7568,10 +7780,10 @@
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G40" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
@@ -8112,10 +8324,10 @@
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G42" s="38" t="s">
         <v>169</v>
-      </c>
-      <c r="G42" s="38" t="s">
-        <v>170</v>
       </c>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
@@ -8386,7 +8598,7 @@
         <v>43</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G43" s="38" t="s">
         <v>139</v>
@@ -8660,7 +8872,7 @@
         <v>43</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
@@ -8939,10 +9151,10 @@
         <v>86</v>
       </c>
       <c r="F46" t="s">
+        <v>172</v>
+      </c>
+      <c r="G46" s="25" t="s">
         <v>173</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>174</v>
       </c>
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
@@ -9483,10 +9695,10 @@
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G48" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:260" x14ac:dyDescent="0.2">
@@ -9504,10 +9716,10 @@
         <v>43</v>
       </c>
       <c r="F49" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G49" s="38" t="s">
         <v>177</v>
-      </c>
-      <c r="G49" s="38" t="s">
-        <v>178</v>
       </c>
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
@@ -9778,7 +9990,7 @@
         <v>43</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
@@ -10046,7 +10258,7 @@
         <v>70</v>
       </c>
       <c r="F51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -10316,7 +10528,7 @@
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
@@ -10586,10 +10798,10 @@
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
@@ -10858,7 +11070,7 @@
       <c r="D54"/>
       <c r="E54"/>
       <c r="F54" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
@@ -11130,7 +11342,7 @@
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
@@ -11398,7 +11610,7 @@
         <v>88</v>
       </c>
       <c r="F56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G56" s="25"/>
       <c r="H56" s="25"/>
@@ -11666,10 +11878,10 @@
         <v>60</v>
       </c>
       <c r="F57" t="s">
+        <v>185</v>
+      </c>
+      <c r="G57" s="25" t="s">
         <v>186</v>
-      </c>
-      <c r="G57" s="25" t="s">
-        <v>187</v>
       </c>
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
@@ -11940,7 +12152,7 @@
         <v>43</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G58" s="25"/>
       <c r="H58" s="25"/>
@@ -12212,7 +12424,7 @@
         <v>43</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
@@ -12484,7 +12696,7 @@
         <v>43</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
@@ -12756,7 +12968,7 @@
         <v>43</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
@@ -24827,8 +25039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IY66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24837,7 +25049,8 @@
     <col min="2" max="2" width="39.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="75.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="34.5" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="2"/>
+    <col min="5" max="5" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:259" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -24883,6 +25096,12 @@
       <c r="D9" s="11" t="s">
         <v>36</v>
       </c>
+      <c r="E9" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="10" spans="1:259" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
@@ -24893,7 +25112,9 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>193</v>
+      </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
@@ -25159,6 +25380,9 @@
       <c r="C11" s="26" t="s">
         <v>27</v>
       </c>
+      <c r="E11" s="26" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="12" spans="1:259" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
@@ -25170,6 +25394,12 @@
       <c r="C12" s="26" t="s">
         <v>29</v>
       </c>
+      <c r="E12" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="13" spans="1:259" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
@@ -25182,8 +25412,12 @@
       <c r="D13" t="s">
         <v>83</v>
       </c>
-      <c r="E13"/>
-      <c r="F13" s="7"/>
+      <c r="E13" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>195</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -25449,7 +25683,9 @@
       <c r="D14" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -25716,8 +25952,12 @@
         <v>5</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>195</v>
+      </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -25983,7 +26223,9 @@
       <c r="D16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -26250,7 +26492,9 @@
       <c r="D17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
@@ -26517,7 +26761,9 @@
         <v>7</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -26784,7 +27030,9 @@
         <v>73</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>144</v>
+      </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -27051,7 +27299,9 @@
       <c r="D20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="7" t="s">
+        <v>145</v>
+      </c>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
@@ -27320,7 +27570,9 @@
       <c r="D21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -27587,7 +27839,9 @@
       <c r="D22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
@@ -27856,7 +28110,9 @@
       <c r="D23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="8"/>
+      <c r="E23" s="8" t="s">
+        <v>150</v>
+      </c>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -28123,7 +28379,9 @@
         <v>25</v>
       </c>
       <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
+      <c r="E24" s="8" t="s">
+        <v>151</v>
+      </c>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -28390,8 +28648,12 @@
       <c r="D25" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>195</v>
+      </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -28657,7 +28919,9 @@
       <c r="D26" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>155</v>
+      </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -28924,7 +29188,9 @@
       <c r="D27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
@@ -29189,8 +29455,12 @@
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="E28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" s="38" t="s">
+        <v>195</v>
+      </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -29456,7 +29726,9 @@
       <c r="D29" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E29"/>
+      <c r="E29" t="s">
+        <v>157</v>
+      </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -29723,7 +29995,9 @@
       <c r="D30" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E30"/>
+      <c r="E30" t="s">
+        <v>157</v>
+      </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
@@ -29990,7 +30264,9 @@
       <c r="D31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E31"/>
+      <c r="E31" t="s">
+        <v>159</v>
+      </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
@@ -30257,7 +30533,9 @@
       <c r="D32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E32"/>
+      <c r="E32" t="s">
+        <v>198</v>
+      </c>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
@@ -30524,7 +30802,9 @@
       <c r="D33" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -30791,7 +31071,9 @@
       <c r="D34" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E34"/>
+      <c r="E34" t="s">
+        <v>163</v>
+      </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
@@ -31060,6 +31342,9 @@
       <c r="D35" s="22" t="s">
         <v>90</v>
       </c>
+      <c r="E35" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -31326,7 +31611,9 @@
       <c r="D36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E36"/>
+      <c r="E36" t="s">
+        <v>199</v>
+      </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
@@ -31593,8 +31880,12 @@
       <c r="D37" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E37"/>
-      <c r="F37" s="7"/>
+      <c r="E37" t="s">
+        <v>199</v>
+      </c>
+      <c r="F37" s="38" t="s">
+        <v>200</v>
+      </c>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
@@ -31858,7 +32149,9 @@
       </c>
       <c r="C38"/>
       <c r="D38"/>
-      <c r="E38"/>
+      <c r="E38" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="39" spans="1:259" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
@@ -31873,7 +32166,9 @@
       <c r="D39" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E39" s="8"/>
+      <c r="E39" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -32138,7 +32433,9 @@
       </c>
       <c r="C40"/>
       <c r="D40"/>
-      <c r="E40"/>
+      <c r="E40" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="41" spans="1:259" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
@@ -32151,7 +32448,9 @@
         <v>17</v>
       </c>
       <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
+      <c r="E41" s="8" t="s">
+        <v>202</v>
+      </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -32418,7 +32717,9 @@
         <v>21</v>
       </c>
       <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="E42" s="8" t="s">
+        <v>203</v>
+      </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
@@ -32685,7 +32986,9 @@
       <c r="D43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="2"/>
+      <c r="E43" s="40" t="s">
+        <v>170</v>
+      </c>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
@@ -32951,6 +33254,9 @@
       <c r="D44" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="E44" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
@@ -33215,7 +33521,9 @@
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
+      <c r="E45" s="20" t="s">
+        <v>142</v>
+      </c>
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
@@ -33480,7 +33788,9 @@
       </c>
       <c r="C46"/>
       <c r="D46"/>
-      <c r="E46"/>
+      <c r="E46" t="s">
+        <v>172</v>
+      </c>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
       <c r="H46" s="25"/>
@@ -33747,7 +34057,9 @@
         <v>11</v>
       </c>
       <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
+      <c r="E47" t="s">
+        <v>172</v>
+      </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -34013,6 +34325,9 @@
       <c r="C48" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="E48" s="10" t="s">
+        <v>174</v>
+      </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -34279,7 +34594,9 @@
       <c r="D49" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="2"/>
+      <c r="E49" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
@@ -34545,6 +34862,9 @@
       <c r="D50" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="E50" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
@@ -34809,7 +35129,9 @@
       </c>
       <c r="C51"/>
       <c r="D51"/>
-      <c r="E51"/>
+      <c r="E51" t="s">
+        <v>179</v>
+      </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
@@ -35074,7 +35396,9 @@
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
+      <c r="E52" s="7" t="s">
+        <v>180</v>
+      </c>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
@@ -35339,7 +35663,9 @@
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
+      <c r="E53" s="7" t="s">
+        <v>182</v>
+      </c>
       <c r="F53" s="25"/>
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
@@ -35604,7 +35930,9 @@
       </c>
       <c r="C54"/>
       <c r="D54"/>
-      <c r="E54"/>
+      <c r="E54" t="s">
+        <v>183</v>
+      </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
@@ -35871,7 +36199,9 @@
         <v>3</v>
       </c>
       <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
+      <c r="E55" s="8" t="s">
+        <v>184</v>
+      </c>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
@@ -36136,7 +36466,9 @@
       </c>
       <c r="C56"/>
       <c r="D56"/>
-      <c r="E56"/>
+      <c r="E56" t="s">
+        <v>167</v>
+      </c>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
       <c r="H56" s="25"/>
@@ -36399,6 +36731,9 @@
       <c r="B57" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="E57" t="s">
+        <v>185</v>
+      </c>
       <c r="F57" s="25"/>
       <c r="G57" s="25"/>
       <c r="H57" s="25"/>
@@ -36665,7 +37000,9 @@
       <c r="D58" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="F58" s="25"/>
       <c r="G58" s="25"/>
       <c r="H58" s="25"/>
@@ -36932,7 +37269,9 @@
       <c r="D59" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E59" s="2"/>
+      <c r="E59" s="40" t="s">
+        <v>204</v>
+      </c>
       <c r="F59" s="25"/>
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
@@ -37199,7 +37538,9 @@
       <c r="D60" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="F60" s="25"/>
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
@@ -37466,7 +37807,9 @@
       <c r="D61" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E61" s="2"/>
+      <c r="E61" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="F61" s="25"/>
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
@@ -37733,7 +38076,9 @@
       <c r="D62" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E62" s="2"/>
+      <c r="E62" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="F62" s="25"/>
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
@@ -37998,6 +38343,9 @@
       </c>
       <c r="C63" s="10" t="s">
         <v>19</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="64" spans="1:259" s="8" customFormat="1" x14ac:dyDescent="0.2">
